--- a/medicine/Psychotrope/Liste_des_artistes_pour_le_Château_Mouton_Rothschild/Liste_des_artistes_pour_le_Château_Mouton_Rothschild.xlsx
+++ b/medicine/Psychotrope/Liste_des_artistes_pour_le_Château_Mouton_Rothschild/Liste_des_artistes_pour_le_Château_Mouton_Rothschild.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_artistes_pour_le_Ch%C3%A2teau_Mouton_Rothschild</t>
+          <t>Liste_des_artistes_pour_le_Château_Mouton_Rothschild</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque année, depuis 1924, le Château Mouton Rothschild demande à un artiste célèbre d'illustrer l'étiquette de son grand cru. Ces derniers ne sont pas rémunérés, mais reçoivent du vin de deux millésimes différents, dont celui qu'ils illustrent.
 Voici la liste exhaustive depuis 1924 :
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_artistes_pour_le_Ch%C3%A2teau_Mouton_Rothschild</t>
+          <t>Liste_des_artistes_pour_le_Château_Mouton_Rothschild</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Château Mouton-Rothschild: Les étiquettes d'artistes</t>
         </is>
